--- a/pubspeak_label_15032023.xlsx
+++ b/pubspeak_label_15032023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject2\SKRIPSI_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093FE8D-1CF6-4CBD-82D6-535A93F07C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D9684-78D9-4324-8116-062653E4E6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -368,13 +368,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD3CF4-5CE2-4EC2-A095-63B12807C90E}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1060,7 @@
       <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10">
@@ -1087,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451A93F0-5321-4BC5-83A3-65D41AB52E85}">
   <dimension ref="A1:K561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+    <sheetView topLeftCell="A525" workbookViewId="0">
       <selection activeCell="F560" sqref="F560"/>
     </sheetView>
   </sheetViews>
@@ -15094,7 +15093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>72</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>72</v>
       </c>
@@ -15148,7 +15147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>72</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>72</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>72</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>72</v>
       </c>
@@ -15256,7 +15255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>72</v>
       </c>
@@ -15283,7 +15282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>72</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>72</v>
       </c>
@@ -15337,7 +15336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>72</v>
       </c>
@@ -15363,9 +15362,8 @@
       <c r="H506" t="s">
         <v>78</v>
       </c>
-      <c r="J506" s="5"/>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>72</v>
       </c>
@@ -15392,7 +15390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>72</v>
       </c>
@@ -15419,7 +15417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>72</v>
       </c>
@@ -15446,7 +15444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>72</v>
       </c>
@@ -15473,7 +15471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>72</v>
       </c>
@@ -15500,7 +15498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>72</v>
       </c>
@@ -15980,29 +15978,28 @@
       <c r="H529" s="3"/>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A530" s="5" t="s">
+      <c r="A530" t="s">
         <v>73</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530">
         <v>2</v>
       </c>
-      <c r="C530" s="5">
+      <c r="C530">
         <v>133</v>
       </c>
-      <c r="D530" s="5">
+      <c r="D530">
         <v>157</v>
       </c>
-      <c r="E530" s="5">
+      <c r="E530">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="F530" s="5" t="s">
+      <c r="F530" t="s">
         <v>47</v>
       </c>
-      <c r="G530" s="5">
-        <v>1</v>
-      </c>
-      <c r="H530" s="5"/>
+      <c r="G530">
+        <v>1</v>
+      </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
@@ -16630,26 +16627,26 @@
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="5" t="s">
+      <c r="A557" t="s">
         <v>73</v>
       </c>
-      <c r="B557" s="5">
+      <c r="B557">
         <v>15</v>
       </c>
-      <c r="C557" s="5">
+      <c r="C557">
         <v>4583</v>
       </c>
-      <c r="D557" s="5">
+      <c r="D557">
         <v>4598</v>
       </c>
-      <c r="E557" s="5">
+      <c r="E557">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="F557" s="5" t="s">
+      <c r="F557" t="s">
         <v>58</v>
       </c>
-      <c r="G557" s="5">
+      <c r="G557">
         <v>1</v>
       </c>
     </row>
